--- a/data/updatedPlan.xlsx
+++ b/data/updatedPlan.xlsx
@@ -1038,30 +1038,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3059,14 +3036,30 @@
       <c r="N57" s="28"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F46"/>
-  <conditionalFormatting sqref="F2:F46"/>
-  <dataValidations count="4">
+  <dataValidations count="10">
+    <dataValidation type="list" showErrorMessage="1" errorStyle="error" error="Not a supported vMix Command" sqref="C10:C9999">
+      <formula1>=Reference!$A:$A</formula1>
+    </dataValidation>
     <dataValidation type="list" showErrorMessage="1" errorStyle="error" error="Not a supported vMix Command" sqref="C2:C9999">
       <formula1>=Reference!$A:$A</formula1>
     </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" errorStyle="error" error="Not a supported vMix Command" sqref="C2:C9999">
+      <formula1>=Reference!$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="error" error="Not a supported vMix Command" sqref="D10:D9999">
+      <formula1>=Reference!$B:$B</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="error" error="Not a supported vMix Command" sqref="D2:D9999">
       <formula1>=Reference!$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="error" error="Not a supported vMix Command" sqref="D2:D9999">
+      <formula1>=Reference!$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" errorStyle="error" error="Does not match vMix Configuration" sqref="F10:F9999">
+      <formula1>=vMixConfig!$T:$T</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" errorStyle="error" error="Does not match vMix Configuration" sqref="F2:F9999">
+      <formula1>=vMixConfig!$T:$T</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" errorStyle="error" error="Does not match vMix Configuration" sqref="F2:F9999">
       <formula1>=vMixConfig!$T:$T</formula1>

--- a/data/updatedPlan.xlsx
+++ b/data/updatedPlan.xlsx
@@ -1038,7 +1038,30 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3036,30 +3059,14 @@
       <c r="N57" s="28"/>
     </row>
   </sheetData>
-  <dataValidations count="10">
-    <dataValidation type="list" showErrorMessage="1" errorStyle="error" error="Not a supported vMix Command" sqref="C10:C9999">
-      <formula1>=Reference!$A:$A</formula1>
-    </dataValidation>
+  <conditionalFormatting sqref="F2:F46"/>
+  <conditionalFormatting sqref="F2:F46"/>
+  <dataValidations count="4">
     <dataValidation type="list" showErrorMessage="1" errorStyle="error" error="Not a supported vMix Command" sqref="C2:C9999">
       <formula1>=Reference!$A:$A</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" errorStyle="error" error="Not a supported vMix Command" sqref="C2:C9999">
-      <formula1>=Reference!$A:$A</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="error" error="Not a supported vMix Command" sqref="D10:D9999">
-      <formula1>=Reference!$B:$B</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="error" error="Not a supported vMix Command" sqref="D2:D9999">
       <formula1>=Reference!$B:$B</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="error" error="Not a supported vMix Command" sqref="D2:D9999">
-      <formula1>=Reference!$B:$B</formula1>
-    </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" errorStyle="error" error="Does not match vMix Configuration" sqref="F10:F9999">
-      <formula1>=vMixConfig!$T:$T</formula1>
-    </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" errorStyle="error" error="Does not match vMix Configuration" sqref="F2:F9999">
-      <formula1>=vMixConfig!$T:$T</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" errorStyle="error" error="Does not match vMix Configuration" sqref="F2:F9999">
       <formula1>=vMixConfig!$T:$T</formula1>
